--- a/Excel2IDS-teste.xlsx
+++ b/Excel2IDS-teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14a5cc58c0ca1b4f/00_UFRGS/01_DEFESA/Arquivos_IDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{9EF1C6B3-A34D-4C1E-8A16-81FE55E48B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18137A16-1BC3-4BE8-8547-C65A9FB65F30}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{9EF1C6B3-A34D-4C1E-8A16-81FE55E48B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D16F222A-BE37-4C8E-9B74-5C68FD55FE6B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="867">
   <si>
     <t>EXCEL2IDS Generator</t>
   </si>
@@ -2427,9 +2427,6 @@
     <t>ids010</t>
   </si>
   <si>
-    <t>ifcspace</t>
-  </si>
-  <si>
     <t>Pset_ManufacturerTypeInformation</t>
   </si>
   <si>
@@ -2472,21 +2469,12 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>".*(Apartamento|Casa Sobreposta|Unidade autônoma|Habitação coletiva|Multifamiliar).*"</t>
-  </si>
-  <si>
     <t>".*(Casa|Residência unifamiliar|Habitação unifamiliar|Moradia unifamiliar|Unidade habitacional).*"</t>
   </si>
   <si>
     <t>Unidade habitacional deve ter área útil definida</t>
   </si>
   <si>
-    <t>".*(Apartamento|Casa Sobreposta|UH|Casa|Unidade habitacional).*"</t>
-  </si>
-  <si>
-    <t>Área útil da UH deve estar quantificad</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -2523,9 +2511,6 @@
     <t>"(?!.*[Bb]anheiro)(?!.*[Ww][Cc])(?!.*[Ll]avabo)(?!.*[Tt]oilet)(?!.*[Ss]anit[áa]rio).*"</t>
   </si>
   <si>
-    <t>.*([Bb]anheiro|[Ww][Cc]|[Ll]avabo|[&lt;s&gt;]anit[áa]rio).*"</t>
-  </si>
-  <si>
     <t>Espaços habitáveis devem ter pé-direito definido</t>
   </si>
   <si>
@@ -2541,25 +2526,25 @@
     <t>IDS014.2</t>
   </si>
   <si>
-    <t>".*([Ss]ala|[Ss]ala [Ee]star|[Ss]ala [Jj]antar|[Qq]uarto de [Cc]asal||[Qq]uarto [Ss]olteiro|[Dd]ormit[óo]rio||[Dd]ormit[óo]rio de  [Cc]asal|[Cc]ozinha|[Bb]anheiro|[ÁáAa]rea de [Ss]ervi[çc]o).*"</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>ifczone</t>
-  </si>
-  <si>
     <t>PartOf</t>
   </si>
   <si>
     <t>IFCRELAGGREGATES</t>
   </si>
   <si>
-    <t>longName</t>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>IFCZONE</t>
+  </si>
+  <si>
+    <t>Pé-direito existente</t>
+  </si>
+  <si>
+    <t>Pé-direito mínimo 2,30m (banheiros)</t>
+  </si>
+  <si>
+    <t>IfcSpace</t>
   </si>
   <si>
     <r>
@@ -2573,7 +2558,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.*(Sala|sala).*</t>
+      <t>.*([Ss]ala|[Ss]ala de [Ee]star).*</t>
     </r>
     <r>
       <rPr>
@@ -2587,32 +2572,216 @@
     </r>
   </si>
   <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>IFCZONE</t>
-  </si>
-  <si>
-    <t>TESTE do PARTOF</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>Instrução do PARTOF TESTE</t>
-  </si>
-  <si>
-    <t>Pé-direito existente</t>
-  </si>
-  <si>
-    <t>Pé-direito mínimo 2,30m (banheiros)</t>
+    <t>.*([Bb]anheiro|[Ww][Cc]|[Ll]avabo|[Ss]anit[áa]rio).*"</t>
+  </si>
+  <si>
+    <t>".*([Aa]partamento|[Cc]asa [Ss]obreposta|[Uu][Hh]|[Cc]asa|[Uu]nidade [Hh]abitacional).*"</t>
+  </si>
+  <si>
+    <t>Área útil da UH deve estar quantificada</t>
+  </si>
+  <si>
+    <t>ifcSpace</t>
+  </si>
+  <si>
+    <t>Pé-direito mínimo 2,30m</t>
+  </si>
+  <si>
+    <t>Pé-direito mínimo 2,30m (cômodos em geral)</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF50A14F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*([Qq]uarto de [Ss]olteiro|[Qq]uarto [Dd]uplo|[Ss]olteiro|[Dd]uplo).*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF50A14F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*([Cc]ozinha).*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF50A14F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*([ÁáAa]rea de [Ss]ervi[çc]o).*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF50A14F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*([Bb]anheiro|[Ww][Cc]).*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>".*([Aa]partamento|[Cc]asa [Ss]obreposta|[Uu]nidade [&lt;a&gt;]ut[oô]noma|[Mm]ultifamiliar).*"</t>
+  </si>
+  <si>
+    <t>programa casa</t>
+  </si>
+  <si>
+    <t>programa apto</t>
+  </si>
+  <si>
+    <t>Programa de necessidades Casa</t>
+  </si>
+  <si>
+    <t>Programa de necessidades apto</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF Casa</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF apto</t>
+  </si>
+  <si>
+    <t>IDS014.3</t>
+  </si>
+  <si>
+    <t>IDS014.4</t>
+  </si>
+  <si>
+    <t>".*([Aa]partamento|[Cc]asa [Ss]obreposta|[Uu]nidade [Aa]ut[oô]noma|[Mm]ultifamiliar).*"</t>
+  </si>
+  <si>
+    <t>programa casa sala</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF Casa Sala</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF Casa Casal</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF apto bnho</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF apto sala</t>
+  </si>
+  <si>
+    <t>TESTE do PARTOF apto casal</t>
+  </si>
+  <si>
+    <t>Cama no Casa</t>
+  </si>
+  <si>
+    <t>".*([Qq]uarto de [Cc]asal|[Cc]asal|[Ss]u[íi]te).*"</t>
+  </si>
+  <si>
+    <t>".*([Ss]ala|[Ss]ala [Ee]star|[Ss]ala [Jj]antar|[Qq]uarto de [Cc]asal|[Qq]uarto [Ss]olteiro|[Dd]ormit[óo]rio|[Dd]ormit[óo]rio de  [Cc]asal|[Cc]ozinha|[Bb]anheiro|[Ww][Cc]|[ÁáAa]rea de [Ss]ervi[çc]o).*"</t>
+  </si>
+  <si>
+    <t>".*([Dd]ormit[óo]rio de  [Cc]asal|[Qq]uarto de [Cc]asal|[Cc]asal|[Ss]u[íi]te).*"</t>
+  </si>
+  <si>
+    <t>Dimensao cama casal</t>
+  </si>
+  <si>
+    <t>Pset_FurnitureTypeCommon</t>
+  </si>
+  <si>
+    <t>NominalLength</t>
+  </si>
+  <si>
+    <t>IfcNonNegativeLengthMeasure</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>NominalDepth</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>IfcFurniture</t>
+  </si>
+  <si>
+    <t>"bed"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2714,6 +2883,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2801,7 +3006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -3270,12 +3475,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3493,6 +3707,59 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
@@ -3567,7 +3834,20 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3648,54 +3928,6 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -4022,12 +4254,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A85355-17E2-445C-8490-999AD8281B0A}">
-  <dimension ref="A1:AG326"/>
+  <dimension ref="A1:AJ333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AD35" sqref="AD35"/>
+      <selection pane="bottomLeft" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4036,32 +4268,34 @@
     <col min="3" max="7" width="17.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" style="3" customWidth="1"/>
     <col min="9" max="17" width="17.77734375" style="1" customWidth="1"/>
-    <col min="18" max="32" width="20.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.109375" style="1"/>
+    <col min="18" max="23" width="20.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.77734375" style="96" customWidth="1"/>
+    <col min="25" max="35" width="20.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:35" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="54"/>
       <c r="F1" s="67"/>
       <c r="G1" s="54"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="120" t="s">
         <v>725</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="103" t="s">
         <v>740</v>
       </c>
       <c r="Q1" s="32" t="s">
@@ -4085,8 +4319,8 @@
       <c r="W1" s="30" t="s">
         <v>777</v>
       </c>
-      <c r="X1" s="30" t="s">
-        <v>804</v>
+      <c r="X1" s="79" t="s">
+        <v>802</v>
       </c>
       <c r="Y1" s="30" t="s">
         <v>778</v>
@@ -4095,43 +4329,56 @@
         <v>779</v>
       </c>
       <c r="AA1" s="30" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AB1" s="30" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AC1" s="30" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="AD1" s="30" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-    </row>
-    <row r="2" spans="1:32" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="79" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="AF1" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="AG1" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="AH1" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="AI1" s="30" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="98" t="s">
         <v>750</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
       <c r="H2" s="40"/>
       <c r="I2" s="38" t="s">
         <v>726</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
       <c r="M2" s="37"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
-      <c r="P2" s="84"/>
+      <c r="P2" s="103"/>
       <c r="Q2" s="27" t="s">
         <v>731</v>
       </c>
@@ -4153,8 +4400,8 @@
       <c r="W2" s="69" t="s">
         <v>780</v>
       </c>
-      <c r="X2" s="69" t="s">
-        <v>806</v>
+      <c r="X2" s="80" t="s">
+        <v>830</v>
       </c>
       <c r="Y2" s="69" t="s">
         <v>778</v>
@@ -4163,41 +4410,52 @@
         <v>779</v>
       </c>
       <c r="AA2" s="69" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AB2" s="69" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AC2" s="69" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="AD2" s="69" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-    </row>
-    <row r="3" spans="1:32" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+        <v>848</v>
+      </c>
+      <c r="AE2" s="69" t="s">
+        <v>839</v>
+      </c>
+      <c r="AF2" s="69" t="s">
+        <v>840</v>
+      </c>
+      <c r="AG2" s="69" t="s">
+        <v>840</v>
+      </c>
+      <c r="AH2" s="69" t="s">
+        <v>840</v>
+      </c>
+      <c r="AI2" s="69"/>
+    </row>
+    <row r="3" spans="1:35" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
       <c r="H3" s="40"/>
       <c r="I3" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="113" t="s">
         <v>752</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="37"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="84"/>
+      <c r="P3" s="103"/>
       <c r="Q3" s="27" t="s">
         <v>734</v>
       </c>
@@ -4219,8 +4477,8 @@
       <c r="W3" s="69" t="s">
         <v>782</v>
       </c>
-      <c r="X3" s="69" t="s">
-        <v>806</v>
+      <c r="X3" s="80" t="s">
+        <v>830</v>
       </c>
       <c r="Y3" s="69" t="s">
         <v>783</v>
@@ -4229,42 +4487,53 @@
         <v>784</v>
       </c>
       <c r="AA3" s="69" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AB3" s="69" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AC3" s="69" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="AD3" s="69" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-    </row>
-    <row r="4" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+        <v>843</v>
+      </c>
+      <c r="AE3" s="69" t="s">
+        <v>843</v>
+      </c>
+      <c r="AF3" s="69" t="s">
+        <v>844</v>
+      </c>
+      <c r="AG3" s="69" t="s">
+        <v>844</v>
+      </c>
+      <c r="AH3" s="69" t="s">
+        <v>844</v>
+      </c>
+      <c r="AI3" s="69"/>
+    </row>
+    <row r="4" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39" t="s">
         <v>728</v>
       </c>
-      <c r="J4" s="95">
+      <c r="J4" s="114">
         <f ca="1">TODAY()</f>
         <v>45995</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="37"/>
       <c r="N4" s="34"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="84"/>
+      <c r="P4" s="103"/>
       <c r="Q4" s="28" t="s">
         <v>735</v>
       </c>
@@ -4286,51 +4555,62 @@
       <c r="W4" s="70" t="s">
         <v>786</v>
       </c>
-      <c r="X4" s="70" t="s">
-        <v>808</v>
+      <c r="X4" s="81" t="s">
+        <v>804</v>
       </c>
       <c r="Y4" s="70" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="Z4" s="70" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="AA4" s="70" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AB4" s="70" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="AC4" s="70" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="AD4" s="70" t="s">
-        <v>836</v>
-      </c>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-    </row>
-    <row r="5" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
+        <v>845</v>
+      </c>
+      <c r="AE4" s="70" t="s">
+        <v>845</v>
+      </c>
+      <c r="AF4" s="70" t="s">
+        <v>846</v>
+      </c>
+      <c r="AG4" s="70" t="s">
+        <v>846</v>
+      </c>
+      <c r="AH4" s="70" t="s">
+        <v>846</v>
+      </c>
+      <c r="AI4" s="70"/>
+    </row>
+    <row r="5" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="40"/>
       <c r="I5" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="117">
         <v>1</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
       <c r="M5" s="37"/>
       <c r="N5" s="34"/>
       <c r="O5" s="55"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="103"/>
       <c r="Q5" s="45" t="s">
         <v>736</v>
       </c>
@@ -4352,7 +4632,7 @@
       <c r="W5" s="71" t="s">
         <v>745</v>
       </c>
-      <c r="X5" s="71" t="s">
+      <c r="X5" s="82" t="s">
         <v>745</v>
       </c>
       <c r="Y5" s="71" t="s">
@@ -4373,26 +4653,39 @@
       <c r="AD5" s="71" t="s">
         <v>745</v>
       </c>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-    </row>
-    <row r="6" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
+      <c r="AE5" s="71" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF5" s="71" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG5" s="71" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH5" s="71" t="s">
+        <v>745</v>
+      </c>
+      <c r="AI5" s="71" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="14"/>
       <c r="I6" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="100" t="s">
         <v>751</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="83"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="55"/>
@@ -4418,14 +4711,14 @@
       <c r="W6" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="X6" s="49" t="s">
-        <v>787</v>
+      <c r="X6" s="83" t="s">
+        <v>831</v>
       </c>
       <c r="Y6" s="49" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="Z6" s="49" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AA6" s="49" t="s">
         <v>10</v>
@@ -4439,26 +4732,39 @@
       <c r="AD6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-    </row>
-    <row r="7" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="AE6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="49" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="14"/>
       <c r="I7" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="100" t="s">
         <v>742</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="83"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="55"/>
@@ -4472,7 +4778,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
       <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
+      <c r="X7" s="84"/>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
@@ -4481,28 +4787,33 @@
       <c r="AD7" s="44"/>
       <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
-    </row>
-    <row r="8" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="49" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="14"/>
       <c r="I8" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="104" t="s">
         <v>732</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="84" t="s">
+      <c r="P8" s="103" t="s">
         <v>723</v>
       </c>
       <c r="Q8" s="32" t="s">
@@ -4514,9 +4825,9 @@
       <c r="U8" s="47"/>
       <c r="V8" s="47"/>
       <c r="W8" s="47" t="s">
-        <v>788</v>
-      </c>
-      <c r="X8" s="47"/>
+        <v>787</v>
+      </c>
+      <c r="X8" s="85"/>
       <c r="Y8" s="47"/>
       <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
@@ -4525,24 +4836,27 @@
       <c r="AD8" s="47"/>
       <c r="AE8" s="47"/>
       <c r="AF8" s="47"/>
-    </row>
-    <row r="9" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+    </row>
+    <row r="9" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
       <c r="H9" s="14"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="55"/>
-      <c r="P9" s="84"/>
+      <c r="P9" s="103"/>
       <c r="Q9" s="27" t="s">
         <v>713</v>
       </c>
@@ -4552,9 +4866,9 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="X9" s="13"/>
+        <v>788</v>
+      </c>
+      <c r="X9" s="86"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
@@ -4563,24 +4877,27 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
-    </row>
-    <row r="10" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+    </row>
+    <row r="10" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
       <c r="H10" s="14"/>
       <c r="I10" s="53"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="84"/>
+      <c r="P10" s="103"/>
       <c r="Q10" s="27" t="s">
         <v>716</v>
       </c>
@@ -4590,9 +4907,9 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="X10" s="13"/>
+        <v>789</v>
+      </c>
+      <c r="X10" s="86"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -4601,13 +4918,16 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
-    </row>
-    <row r="11" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+    </row>
+    <row r="11" spans="1:35" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
       <c r="H11" s="14"/>
@@ -4618,7 +4938,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="84"/>
+      <c r="P11" s="103"/>
       <c r="Q11" s="28" t="s">
         <v>737</v>
       </c>
@@ -4628,9 +4948,9 @@
       <c r="U11" s="31"/>
       <c r="V11" s="31"/>
       <c r="W11" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="X11" s="31"/>
+        <v>790</v>
+      </c>
+      <c r="X11" s="87"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
       <c r="AA11" s="31"/>
@@ -4639,13 +4959,16 @@
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
-    </row>
-    <row r="12" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+    </row>
+    <row r="12" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
       <c r="H12" s="14"/>
@@ -4656,7 +4979,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="84"/>
+      <c r="P12" s="103"/>
       <c r="Q12" s="32" t="s">
         <v>1</v>
       </c>
@@ -4666,7 +4989,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
+      <c r="X12" s="83"/>
       <c r="Y12" s="49"/>
       <c r="Z12" s="49"/>
       <c r="AA12" s="49"/>
@@ -4675,13 +4998,16 @@
       <c r="AD12" s="49"/>
       <c r="AE12" s="49"/>
       <c r="AF12" s="49"/>
-    </row>
-    <row r="13" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+    </row>
+    <row r="13" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="14"/>
@@ -4692,7 +5018,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="84"/>
+      <c r="P13" s="103"/>
       <c r="Q13" s="28" t="s">
         <v>717</v>
       </c>
@@ -4702,7 +5028,7 @@
       <c r="U13" s="44"/>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
+      <c r="X13" s="84"/>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
@@ -4711,13 +5037,16 @@
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
-    </row>
-    <row r="14" spans="1:32" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+    </row>
+    <row r="14" spans="1:35" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
       <c r="H14" s="14"/>
@@ -4738,29 +5067,44 @@
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
       <c r="W14" s="47"/>
-      <c r="X14" s="47" t="s">
-        <v>792</v>
+      <c r="X14" s="85" t="s">
+        <v>791</v>
       </c>
       <c r="Y14" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Z14" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AA14" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AB14" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AC14" s="47" t="s">
-        <v>792</v>
-      </c>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-    </row>
-    <row r="15" spans="1:32" customFormat="1" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>791</v>
+      </c>
+      <c r="AD14" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AF14" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG14" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AH14" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AI14" s="47" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" customFormat="1" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4786,29 +5130,44 @@
       <c r="U15" s="31"/>
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
-      <c r="X15" s="31" t="s">
-        <v>805</v>
+      <c r="X15" s="87" t="s">
+        <v>829</v>
       </c>
       <c r="Y15" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="Z15" s="31" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="AA15" s="31" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="AB15" s="31" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AC15" s="31" t="s">
-        <v>819</v>
-      </c>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-    </row>
-    <row r="16" spans="1:32" customFormat="1" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+      <c r="AD15" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="AE15" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="AG15" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="AH15" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" customFormat="1" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4826,7 +5185,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="45" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
@@ -4834,19 +5193,32 @@
       <c r="U16" s="46"/>
       <c r="V16" s="46"/>
       <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
+      <c r="X16" s="88"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="46"/>
       <c r="AB16" s="46"/>
       <c r="AC16" s="46"/>
       <c r="AD16" s="46" t="s">
-        <v>834</v>
-      </c>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-    </row>
-    <row r="17" spans="1:32" customFormat="1" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>823</v>
+      </c>
+      <c r="AE16" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="AF16" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="AG16" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="AH16" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="AI16" s="46" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" customFormat="1" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4864,7 +5236,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="45" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
@@ -4872,19 +5244,32 @@
       <c r="U17" s="46"/>
       <c r="V17" s="46"/>
       <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
+      <c r="X17" s="88"/>
       <c r="Y17" s="46"/>
       <c r="Z17" s="46"/>
       <c r="AA17" s="46"/>
       <c r="AB17" s="46"/>
       <c r="AC17" s="46"/>
       <c r="AD17" s="46" t="s">
-        <v>830</v>
-      </c>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-    </row>
-    <row r="18" spans="1:32" customFormat="1" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="AE17" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF17" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="AG17" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="AH17" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="AI17" s="46" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" customFormat="1" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -4910,7 +5295,7 @@
       <c r="U18" s="46"/>
       <c r="V18" s="46"/>
       <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
+      <c r="X18" s="88"/>
       <c r="Y18" s="46"/>
       <c r="Z18" s="46"/>
       <c r="AA18" s="46"/>
@@ -4919,12 +5304,15 @@
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-    </row>
-    <row r="19" spans="1:32" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+    </row>
+    <row r="19" spans="1:35" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -4960,37 +5348,46 @@
         <v>768</v>
       </c>
       <c r="W19" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="X19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="X19" s="89" t="s">
+        <v>792</v>
       </c>
       <c r="Y19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Z19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AA19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AB19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AC19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AD19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AE19" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF19" s="25" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" customFormat="1" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>792</v>
+      </c>
+      <c r="AG19" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="AH19" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="AI19" s="25" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" customFormat="1" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>734</v>
       </c>
@@ -5058,10 +5455,10 @@
         <v>769</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="X20" s="26" t="s">
-        <v>769</v>
+        <v>800</v>
+      </c>
+      <c r="X20" s="90" t="s">
+        <v>800</v>
       </c>
       <c r="Y20" s="26" t="s">
         <v>769</v>
@@ -5087,8 +5484,17 @@
       <c r="AF20" s="26" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG20" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="AH20" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="AI20" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
         <v>770</v>
       </c>
@@ -5126,7 +5532,7 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
       <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
+      <c r="X21" s="91"/>
       <c r="Y21" s="29"/>
       <c r="Z21" s="29"/>
       <c r="AA21" s="29"/>
@@ -5135,8 +5541,11 @@
       <c r="AD21" s="29"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
-    </row>
-    <row r="22" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+    </row>
+    <row r="22" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>772</v>
       </c>
@@ -5174,7 +5583,7 @@
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
+      <c r="X22" s="92"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -5183,8 +5592,11 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-    </row>
-    <row r="23" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+    </row>
+    <row r="23" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>758</v>
       </c>
@@ -5224,7 +5636,7 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
+      <c r="X23" s="93"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
@@ -5233,8 +5645,11 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
-    </row>
-    <row r="24" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+    </row>
+    <row r="24" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58" t="s">
         <v>758</v>
       </c>
@@ -5274,7 +5689,7 @@
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
+      <c r="X24" s="92"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -5283,8 +5698,11 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
-    </row>
-    <row r="25" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+    </row>
+    <row r="25" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58" t="s">
         <v>776</v>
       </c>
@@ -5294,13 +5712,13 @@
       <c r="C25" s="58"/>
       <c r="D25" s="58"/>
       <c r="E25" s="57" t="s">
+        <v>793</v>
+      </c>
+      <c r="F25" s="59" t="s">
         <v>794</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="G25" s="59" t="s">
         <v>795</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>796</v>
       </c>
       <c r="H25" s="72" t="s">
         <v>78</v>
@@ -5324,7 +5742,7 @@
         <v>14</v>
       </c>
       <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="X25" s="93"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
@@ -5333,8 +5751,11 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
-    </row>
-    <row r="26" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+    </row>
+    <row r="26" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
         <v>777</v>
       </c>
@@ -5344,13 +5765,13 @@
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
       <c r="E26" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="F26" s="59" t="s">
         <v>788</v>
       </c>
-      <c r="F26" s="59" t="s">
-        <v>789</v>
-      </c>
       <c r="G26" s="59" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H26" s="72"/>
       <c r="I26" s="60"/>
@@ -5362,7 +5783,7 @@
       <c r="O26" s="62"/>
       <c r="P26" s="75"/>
       <c r="Q26" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
@@ -5370,7 +5791,7 @@
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
+      <c r="X26" s="92"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -5379,10 +5800,13 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
-    </row>
-    <row r="27" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+    </row>
+    <row r="27" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>745</v>
@@ -5390,10 +5814,10 @@
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
       <c r="E27" s="59" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="72" t="s">
@@ -5408,7 +5832,7 @@
       <c r="O27" s="62"/>
       <c r="P27" s="74"/>
       <c r="Q27" s="21" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -5416,7 +5840,7 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="11" t="s">
+      <c r="X27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="Y27" s="11"/>
@@ -5427,8 +5851,11 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
-    </row>
-    <row r="28" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+    </row>
+    <row r="28" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
         <v>778</v>
       </c>
@@ -5438,13 +5865,13 @@
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="59" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H28" s="72" t="s">
         <v>60</v>
@@ -5466,7 +5893,7 @@
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
+      <c r="X28" s="92"/>
       <c r="Y28" s="12" t="s">
         <v>14</v>
       </c>
@@ -5477,8 +5904,11 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
-    </row>
-    <row r="29" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+    </row>
+    <row r="29" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
         <v>779</v>
       </c>
@@ -5488,13 +5918,13 @@
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="59" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H29" s="72" t="s">
         <v>60</v>
@@ -5516,10 +5946,10 @@
       <c r="U29" s="56"/>
       <c r="V29" s="56"/>
       <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
+      <c r="X29" s="94"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="56" t="s">
-        <v>14</v>
+        <v>803</v>
       </c>
       <c r="AA29" s="56"/>
       <c r="AB29" s="56"/>
@@ -5527,10 +5957,13 @@
       <c r="AD29" s="56"/>
       <c r="AE29" s="56"/>
       <c r="AF29" s="56"/>
-    </row>
-    <row r="30" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+    </row>
+    <row r="30" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>745</v>
@@ -5538,14 +5971,14 @@
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="72" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="I30" s="60"/>
       <c r="J30" s="61"/>
@@ -5564,23 +5997,26 @@
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
+      <c r="X30" s="92"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12" t="s">
-        <v>807</v>
-      </c>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
-    </row>
-    <row r="31" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+    </row>
+    <row r="31" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>745</v>
@@ -5588,16 +6024,16 @@
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
       <c r="E31" s="59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="I31" s="60"/>
       <c r="J31" s="61"/>
@@ -5616,23 +6052,24 @@
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
+      <c r="X31" s="92"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="AC31" s="12"/>
-      <c r="AD31" s="12" t="s">
-        <v>807</v>
-      </c>
+      <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
-    </row>
-    <row r="32" spans="1:32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+    </row>
+    <row r="32" spans="1:35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>745</v>
@@ -5640,16 +6077,16 @@
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H32" s="72" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="I32" s="60"/>
       <c r="J32" s="61"/>
@@ -5668,29 +6105,30 @@
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
+      <c r="X32" s="92"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="AD32" s="12" t="s">
-        <v>807</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
-    </row>
-    <row r="33" spans="1:33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+    </row>
+    <row r="33" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>745</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="78"/>
@@ -5702,10 +6140,10 @@
       <c r="K33" s="63"/>
       <c r="L33" s="60"/>
       <c r="M33" s="65" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
       <c r="N33" s="65" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="O33" s="62"/>
       <c r="P33" s="75"/>
@@ -5718,22 +6156,31 @@
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
+      <c r="X33" s="92"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="12" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
-    </row>
-    <row r="34" spans="1:33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="77"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+    </row>
+    <row r="34" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>826</v>
+      </c>
       <c r="D34" s="58"/>
       <c r="E34" s="78"/>
       <c r="F34" s="59"/>
@@ -5743,31 +6190,48 @@
       <c r="J34" s="61"/>
       <c r="K34" s="63"/>
       <c r="L34" s="60"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="64"/>
+      <c r="M34" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N34" s="65" t="s">
+        <v>857</v>
+      </c>
       <c r="O34" s="62"/>
       <c r="P34" s="75"/>
-      <c r="Q34" s="21"/>
+      <c r="Q34" s="21" t="s">
+        <v>769</v>
+      </c>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
+      <c r="X34" s="92"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
+      <c r="AE34" s="12" t="s">
+        <v>803</v>
+      </c>
       <c r="AF34" s="12"/>
-    </row>
-    <row r="35" spans="1:33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="77"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+    </row>
+    <row r="35" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>826</v>
+      </c>
       <c r="D35" s="58"/>
       <c r="E35" s="78"/>
       <c r="F35" s="59"/>
@@ -5777,18 +6241,24 @@
       <c r="J35" s="61"/>
       <c r="K35" s="63"/>
       <c r="L35" s="60"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="64"/>
+      <c r="M35" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>834</v>
+      </c>
       <c r="O35" s="62"/>
       <c r="P35" s="75"/>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="21" t="s">
+        <v>800</v>
+      </c>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
+      <c r="X35" s="92"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -5797,11 +6267,20 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
-    </row>
-    <row r="36" spans="1:33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="77"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+    </row>
+    <row r="36" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>826</v>
+      </c>
       <c r="D36" s="58"/>
       <c r="E36" s="78"/>
       <c r="F36" s="59"/>
@@ -5811,18 +6290,24 @@
       <c r="J36" s="61"/>
       <c r="K36" s="63"/>
       <c r="L36" s="60"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="64"/>
+      <c r="M36" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N36" s="65" t="s">
+        <v>835</v>
+      </c>
       <c r="O36" s="62"/>
       <c r="P36" s="75"/>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="21" t="s">
+        <v>800</v>
+      </c>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
+      <c r="X36" s="92"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -5831,11 +6316,20 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
-    </row>
-    <row r="37" spans="1:33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="77"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+    </row>
+    <row r="37" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>826</v>
+      </c>
       <c r="D37" s="58"/>
       <c r="E37" s="78"/>
       <c r="F37" s="59"/>
@@ -5845,18 +6339,24 @@
       <c r="J37" s="61"/>
       <c r="K37" s="63"/>
       <c r="L37" s="60"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="64"/>
+      <c r="M37" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N37" s="65" t="s">
+        <v>836</v>
+      </c>
       <c r="O37" s="62"/>
       <c r="P37" s="75"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="21" t="s">
+        <v>800</v>
+      </c>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
+      <c r="X37" s="92"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
@@ -5865,940 +6365,1605 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
-    </row>
-    <row r="38" spans="1:33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+    </row>
+    <row r="38" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>826</v>
+      </c>
       <c r="D38" s="58"/>
-      <c r="E38" s="57"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="60"/>
       <c r="J38" s="61"/>
       <c r="K38" s="63"/>
       <c r="L38" s="60"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="60"/>
+      <c r="M38" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N38" s="65" t="s">
+        <v>837</v>
+      </c>
       <c r="O38" s="62"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-    </row>
-    <row r="39" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="4"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="75"/>
+      <c r="Q38" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+    </row>
+    <row r="39" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N39" s="65" t="s">
+        <v>827</v>
+      </c>
+      <c r="O39" s="62"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="92"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+    </row>
+    <row r="40" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N40" s="65" t="s">
+        <v>857</v>
+      </c>
+      <c r="O40" s="62"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI40" s="12"/>
+    </row>
+    <row r="41" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N41" s="65" t="s">
+        <v>834</v>
+      </c>
+      <c r="O41" s="62"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="92"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+    </row>
+    <row r="42" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N42" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="O42" s="62"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+    </row>
+    <row r="43" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="N43" s="65" t="s">
+        <v>836</v>
+      </c>
+      <c r="O43" s="62"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+    </row>
+    <row r="44" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59" t="s">
+        <v>859</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>862</v>
+      </c>
+      <c r="H44" s="72" t="s">
+        <v>861</v>
+      </c>
+      <c r="I44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59" t="s">
+        <v>859</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="G45" s="59" t="s">
+        <v>864</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>861</v>
+      </c>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="X46" s="95"/>
+    </row>
+    <row r="47" spans="1:36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X47" s="95"/>
+      <c r="AJ47" s="2"/>
+    </row>
+    <row r="48" spans="1:36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X48" s="95"/>
+    </row>
+    <row r="49" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X49" s="95"/>
+    </row>
+    <row r="50" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X50" s="95"/>
+    </row>
+    <row r="51" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X51" s="95"/>
+    </row>
+    <row r="52" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X52" s="95"/>
+    </row>
+    <row r="53" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X53" s="95"/>
+    </row>
+    <row r="54" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X54" s="95"/>
+    </row>
+    <row r="55" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X55" s="95"/>
+    </row>
+    <row r="56" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X56" s="95"/>
+    </row>
+    <row r="57" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X57" s="95"/>
+    </row>
+    <row r="58" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X58" s="95"/>
+    </row>
+    <row r="59" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X59" s="95"/>
+    </row>
+    <row r="60" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X60" s="95"/>
+    </row>
+    <row r="61" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X61" s="95"/>
+    </row>
+    <row r="62" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X62" s="95"/>
+    </row>
+    <row r="63" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X63" s="95"/>
+    </row>
+    <row r="64" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X64" s="95"/>
+    </row>
+    <row r="65" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X65" s="95"/>
+    </row>
+    <row r="66" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X66" s="95"/>
+    </row>
+    <row r="67" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X67" s="95"/>
+    </row>
+    <row r="68" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X68" s="95"/>
+    </row>
+    <row r="69" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X69" s="95"/>
+    </row>
+    <row r="70" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X70" s="95"/>
+    </row>
+    <row r="71" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X71" s="95"/>
+    </row>
+    <row r="72" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X72" s="95"/>
+    </row>
+    <row r="73" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X73" s="95"/>
+    </row>
+    <row r="74" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X74" s="95"/>
+    </row>
+    <row r="75" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X75" s="95"/>
+    </row>
+    <row r="76" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X76" s="95"/>
+    </row>
+    <row r="77" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X77" s="95"/>
+    </row>
+    <row r="78" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X78" s="95"/>
+    </row>
+    <row r="79" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X79" s="95"/>
+    </row>
+    <row r="80" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X80" s="95"/>
+    </row>
+    <row r="81" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X81" s="95"/>
+    </row>
+    <row r="82" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X82" s="95"/>
+    </row>
+    <row r="83" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X83" s="95"/>
+    </row>
+    <row r="84" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X84" s="95"/>
+    </row>
+    <row r="85" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X85" s="95"/>
+    </row>
+    <row r="86" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X86" s="95"/>
+    </row>
+    <row r="87" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X87" s="95"/>
+    </row>
+    <row r="88" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X88" s="95"/>
+    </row>
+    <row r="89" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X89" s="95"/>
+    </row>
+    <row r="90" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X90" s="95"/>
+    </row>
+    <row r="91" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X91" s="95"/>
+    </row>
+    <row r="92" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X92" s="95"/>
+    </row>
+    <row r="93" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X93" s="95"/>
+    </row>
+    <row r="94" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X94" s="95"/>
+    </row>
+    <row r="95" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X95" s="95"/>
+    </row>
+    <row r="96" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X96" s="95"/>
+    </row>
+    <row r="97" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X97" s="95"/>
+    </row>
+    <row r="98" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X98" s="95"/>
+    </row>
+    <row r="99" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X99" s="95"/>
+    </row>
+    <row r="100" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X100" s="95"/>
+    </row>
+    <row r="101" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X101" s="95"/>
+    </row>
+    <row r="102" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X102" s="95"/>
+    </row>
+    <row r="103" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X103" s="95"/>
+    </row>
+    <row r="104" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X104" s="95"/>
+    </row>
+    <row r="105" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X105" s="95"/>
+    </row>
+    <row r="106" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X106" s="95"/>
+    </row>
+    <row r="107" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X107" s="95"/>
+    </row>
+    <row r="108" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X108" s="95"/>
+    </row>
+    <row r="109" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X109" s="95"/>
+    </row>
+    <row r="110" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X110" s="95"/>
+    </row>
+    <row r="111" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X111" s="95"/>
+    </row>
+    <row r="112" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X112" s="95"/>
+    </row>
+    <row r="113" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X113" s="95"/>
+    </row>
+    <row r="114" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X114" s="95"/>
+    </row>
+    <row r="115" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X115" s="95"/>
+    </row>
+    <row r="116" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X116" s="95"/>
+    </row>
+    <row r="117" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X117" s="95"/>
+    </row>
+    <row r="118" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X118" s="95"/>
+    </row>
+    <row r="119" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X119" s="95"/>
+    </row>
+    <row r="120" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X120" s="95"/>
+    </row>
+    <row r="121" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X121" s="95"/>
+    </row>
+    <row r="122" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X122" s="95"/>
+    </row>
+    <row r="123" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X123" s="95"/>
+    </row>
+    <row r="124" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X124" s="95"/>
+    </row>
+    <row r="125" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X125" s="95"/>
+    </row>
+    <row r="126" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X126" s="95"/>
+    </row>
+    <row r="127" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X127" s="95"/>
+    </row>
+    <row r="128" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X128" s="95"/>
+    </row>
+    <row r="129" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X129" s="95"/>
+    </row>
+    <row r="130" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X130" s="95"/>
+    </row>
+    <row r="131" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X131" s="95"/>
+    </row>
+    <row r="132" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X132" s="95"/>
+    </row>
+    <row r="133" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X133" s="95"/>
+    </row>
+    <row r="134" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X134" s="95"/>
+    </row>
+    <row r="135" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X135" s="95"/>
+    </row>
+    <row r="136" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X136" s="95"/>
+    </row>
+    <row r="137" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X137" s="95"/>
+    </row>
+    <row r="138" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X138" s="95"/>
+    </row>
+    <row r="139" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X139" s="95"/>
+    </row>
+    <row r="140" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X140" s="95"/>
+    </row>
+    <row r="141" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X141" s="95"/>
+    </row>
+    <row r="142" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X142" s="95"/>
+    </row>
+    <row r="143" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X143" s="95"/>
+    </row>
+    <row r="144" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X144" s="95"/>
+    </row>
+    <row r="145" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X145" s="95"/>
+    </row>
+    <row r="146" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X146" s="95"/>
+    </row>
+    <row r="147" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X147" s="95"/>
+    </row>
+    <row r="148" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X148" s="95"/>
+    </row>
+    <row r="149" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X149" s="95"/>
+    </row>
+    <row r="150" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X150" s="95"/>
+    </row>
+    <row r="151" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X151" s="95"/>
+    </row>
+    <row r="152" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X152" s="95"/>
+    </row>
+    <row r="153" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X153" s="95"/>
+    </row>
+    <row r="154" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X154" s="95"/>
+    </row>
+    <row r="155" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X155" s="95"/>
+    </row>
+    <row r="156" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X156" s="95"/>
+    </row>
+    <row r="157" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X157" s="95"/>
+    </row>
+    <row r="158" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X158" s="95"/>
+    </row>
+    <row r="159" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X159" s="95"/>
+    </row>
+    <row r="160" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X160" s="95"/>
+    </row>
+    <row r="161" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X161" s="95"/>
+    </row>
+    <row r="162" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X162" s="95"/>
+    </row>
+    <row r="163" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X163" s="95"/>
+    </row>
+    <row r="164" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X164" s="95"/>
+    </row>
+    <row r="165" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X165" s="95"/>
+    </row>
+    <row r="166" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X166" s="95"/>
+    </row>
+    <row r="167" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X167" s="95"/>
+    </row>
+    <row r="168" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X168" s="95"/>
+    </row>
+    <row r="169" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X169" s="95"/>
+    </row>
+    <row r="170" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H170" s="4"/>
-    </row>
-    <row r="171" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X170" s="95"/>
+    </row>
+    <row r="171" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H171" s="4"/>
-    </row>
-    <row r="172" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X171" s="95"/>
+    </row>
+    <row r="172" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H172" s="4"/>
-    </row>
-    <row r="173" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X172" s="95"/>
+    </row>
+    <row r="173" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H173" s="4"/>
-    </row>
-    <row r="174" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X173" s="95"/>
+    </row>
+    <row r="174" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H174" s="4"/>
-    </row>
-    <row r="175" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X174" s="95"/>
+    </row>
+    <row r="175" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H175" s="4"/>
-    </row>
-    <row r="176" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X175" s="95"/>
+    </row>
+    <row r="176" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X176" s="95"/>
+    </row>
+    <row r="177" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H177" s="4"/>
-    </row>
-    <row r="178" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X177" s="95"/>
+    </row>
+    <row r="178" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X178" s="95"/>
+    </row>
+    <row r="179" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H179" s="4"/>
-    </row>
-    <row r="180" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X179" s="95"/>
+    </row>
+    <row r="180" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H180" s="4"/>
-    </row>
-    <row r="181" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X180" s="95"/>
+    </row>
+    <row r="181" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H181" s="4"/>
-    </row>
-    <row r="182" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X181" s="95"/>
+    </row>
+    <row r="182" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X182" s="95"/>
+    </row>
+    <row r="183" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X183" s="95"/>
+    </row>
+    <row r="184" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X184" s="95"/>
+    </row>
+    <row r="185" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X185" s="95"/>
+    </row>
+    <row r="186" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H186" s="4"/>
-    </row>
-    <row r="187" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X186" s="95"/>
+    </row>
+    <row r="187" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H187" s="4"/>
-    </row>
-    <row r="188" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X187" s="95"/>
+    </row>
+    <row r="188" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X188" s="95"/>
+    </row>
+    <row r="189" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H189" s="4"/>
-    </row>
-    <row r="190" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X189" s="95"/>
+    </row>
+    <row r="190" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H190" s="4"/>
-    </row>
-    <row r="191" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X190" s="95"/>
+    </row>
+    <row r="191" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H191" s="4"/>
-    </row>
-    <row r="192" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X191" s="95"/>
+    </row>
+    <row r="192" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H192" s="4"/>
-    </row>
-    <row r="193" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X192" s="95"/>
+    </row>
+    <row r="193" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X193" s="95"/>
+    </row>
+    <row r="194" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H194" s="4"/>
-    </row>
-    <row r="195" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X194" s="95"/>
+    </row>
+    <row r="195" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H195" s="4"/>
-    </row>
-    <row r="196" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X195" s="95"/>
+    </row>
+    <row r="196" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H196" s="4"/>
-    </row>
-    <row r="197" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X196" s="95"/>
+    </row>
+    <row r="197" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H197" s="4"/>
-    </row>
-    <row r="198" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X197" s="95"/>
+    </row>
+    <row r="198" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H198" s="4"/>
-    </row>
-    <row r="199" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X198" s="95"/>
+    </row>
+    <row r="199" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H199" s="4"/>
-    </row>
-    <row r="200" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X199" s="95"/>
+    </row>
+    <row r="200" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H200" s="4"/>
-    </row>
-    <row r="201" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X200" s="95"/>
+    </row>
+    <row r="201" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H201" s="4"/>
-    </row>
-    <row r="202" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X201" s="95"/>
+    </row>
+    <row r="202" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H202" s="4"/>
-    </row>
-    <row r="203" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X202" s="95"/>
+    </row>
+    <row r="203" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X203" s="95"/>
+    </row>
+    <row r="204" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H204" s="4"/>
-    </row>
-    <row r="205" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X204" s="95"/>
+    </row>
+    <row r="205" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H205" s="4"/>
-    </row>
-    <row r="206" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X205" s="95"/>
+    </row>
+    <row r="206" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H206" s="4"/>
-    </row>
-    <row r="207" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X206" s="95"/>
+    </row>
+    <row r="207" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H207" s="4"/>
-    </row>
-    <row r="208" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X207" s="95"/>
+    </row>
+    <row r="208" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H208" s="4"/>
-    </row>
-    <row r="209" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X208" s="95"/>
+    </row>
+    <row r="209" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H209" s="4"/>
-    </row>
-    <row r="210" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X209" s="95"/>
+    </row>
+    <row r="210" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H210" s="4"/>
-    </row>
-    <row r="211" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X210" s="95"/>
+    </row>
+    <row r="211" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H211" s="4"/>
-    </row>
-    <row r="212" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X211" s="95"/>
+    </row>
+    <row r="212" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X212" s="95"/>
+    </row>
+    <row r="213" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H213" s="4"/>
-    </row>
-    <row r="214" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X213" s="95"/>
+    </row>
+    <row r="214" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H214" s="4"/>
-    </row>
-    <row r="215" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X214" s="95"/>
+    </row>
+    <row r="215" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H215" s="4"/>
-    </row>
-    <row r="216" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X215" s="95"/>
+    </row>
+    <row r="216" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H216" s="4"/>
-    </row>
-    <row r="217" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X216" s="95"/>
+    </row>
+    <row r="217" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H217" s="4"/>
-    </row>
-    <row r="218" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X217" s="95"/>
+    </row>
+    <row r="218" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X218" s="95"/>
+    </row>
+    <row r="219" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H219" s="4"/>
-    </row>
-    <row r="220" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X219" s="95"/>
+    </row>
+    <row r="220" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X220" s="95"/>
+    </row>
+    <row r="221" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H221" s="4"/>
-    </row>
-    <row r="222" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X221" s="95"/>
+    </row>
+    <row r="222" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X222" s="95"/>
+    </row>
+    <row r="223" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X223" s="95"/>
+    </row>
+    <row r="224" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X224" s="95"/>
+    </row>
+    <row r="225" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X225" s="95"/>
+    </row>
+    <row r="226" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X226" s="95"/>
+    </row>
+    <row r="227" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X227" s="95"/>
+    </row>
+    <row r="228" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X228" s="95"/>
+    </row>
+    <row r="229" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X229" s="95"/>
+    </row>
+    <row r="230" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X230" s="95"/>
+    </row>
+    <row r="231" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H231" s="4"/>
-    </row>
-    <row r="232" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X231" s="95"/>
+    </row>
+    <row r="232" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H232" s="4"/>
-    </row>
-    <row r="233" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X232" s="95"/>
+    </row>
+    <row r="233" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H233" s="4"/>
-    </row>
-    <row r="234" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X233" s="95"/>
+    </row>
+    <row r="234" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H234" s="4"/>
-    </row>
-    <row r="235" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X234" s="95"/>
+    </row>
+    <row r="235" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H235" s="4"/>
-    </row>
-    <row r="236" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X235" s="95"/>
+    </row>
+    <row r="236" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H236" s="4"/>
-    </row>
-    <row r="237" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X236" s="95"/>
+    </row>
+    <row r="237" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X237" s="95"/>
+    </row>
+    <row r="238" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H238" s="4"/>
-    </row>
-    <row r="239" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X238" s="95"/>
+    </row>
+    <row r="239" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H239" s="4"/>
-    </row>
-    <row r="240" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X239" s="95"/>
+    </row>
+    <row r="240" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H240" s="4"/>
-    </row>
-    <row r="241" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X240" s="95"/>
+    </row>
+    <row r="241" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H241" s="4"/>
-    </row>
-    <row r="242" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X241" s="95"/>
+    </row>
+    <row r="242" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H242" s="4"/>
-    </row>
-    <row r="243" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X242" s="95"/>
+    </row>
+    <row r="243" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H243" s="4"/>
-    </row>
-    <row r="244" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X243" s="95"/>
+    </row>
+    <row r="244" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H244" s="4"/>
-    </row>
-    <row r="245" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X244" s="95"/>
+    </row>
+    <row r="245" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H245" s="4"/>
-    </row>
-    <row r="246" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X245" s="95"/>
+    </row>
+    <row r="246" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H246" s="4"/>
-    </row>
-    <row r="247" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X246" s="95"/>
+    </row>
+    <row r="247" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H247" s="4"/>
-    </row>
-    <row r="248" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X247" s="95"/>
+    </row>
+    <row r="248" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H248" s="4"/>
-    </row>
-    <row r="249" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X248" s="95"/>
+    </row>
+    <row r="249" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H249" s="4"/>
-    </row>
-    <row r="250" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X249" s="95"/>
+    </row>
+    <row r="250" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H250" s="4"/>
-    </row>
-    <row r="251" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X250" s="95"/>
+    </row>
+    <row r="251" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H251" s="4"/>
-    </row>
-    <row r="252" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X251" s="95"/>
+    </row>
+    <row r="252" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H252" s="4"/>
-    </row>
-    <row r="253" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X252" s="95"/>
+    </row>
+    <row r="253" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H253" s="4"/>
-    </row>
-    <row r="254" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X253" s="95"/>
+    </row>
+    <row r="254" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H254" s="4"/>
-    </row>
-    <row r="255" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X254" s="95"/>
+    </row>
+    <row r="255" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H255" s="4"/>
-    </row>
-    <row r="256" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X255" s="95"/>
+    </row>
+    <row r="256" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H256" s="4"/>
-    </row>
-    <row r="257" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X256" s="95"/>
+    </row>
+    <row r="257" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H257" s="4"/>
-    </row>
-    <row r="258" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X257" s="95"/>
+    </row>
+    <row r="258" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H258" s="4"/>
-    </row>
-    <row r="259" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X258" s="95"/>
+    </row>
+    <row r="259" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H259" s="4"/>
-    </row>
-    <row r="260" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X259" s="95"/>
+    </row>
+    <row r="260" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H260" s="4"/>
-    </row>
-    <row r="261" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X260" s="95"/>
+    </row>
+    <row r="261" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H261" s="4"/>
-    </row>
-    <row r="262" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X261" s="95"/>
+    </row>
+    <row r="262" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H262" s="4"/>
-    </row>
-    <row r="263" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X262" s="95"/>
+    </row>
+    <row r="263" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H263" s="4"/>
-    </row>
-    <row r="264" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X263" s="95"/>
+    </row>
+    <row r="264" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H264" s="4"/>
-    </row>
-    <row r="265" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X264" s="95"/>
+    </row>
+    <row r="265" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H265" s="4"/>
-    </row>
-    <row r="266" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X265" s="95"/>
+    </row>
+    <row r="266" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H266" s="4"/>
-    </row>
-    <row r="267" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X266" s="95"/>
+    </row>
+    <row r="267" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H267" s="4"/>
-    </row>
-    <row r="268" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X267" s="95"/>
+    </row>
+    <row r="268" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H268" s="4"/>
-    </row>
-    <row r="269" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X268" s="95"/>
+    </row>
+    <row r="269" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H269" s="4"/>
-    </row>
-    <row r="270" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X269" s="95"/>
+    </row>
+    <row r="270" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H270" s="4"/>
-    </row>
-    <row r="271" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X270" s="95"/>
+    </row>
+    <row r="271" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H271" s="4"/>
-    </row>
-    <row r="272" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X271" s="95"/>
+    </row>
+    <row r="272" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H272" s="4"/>
-    </row>
-    <row r="273" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X272" s="95"/>
+    </row>
+    <row r="273" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H273" s="4"/>
-    </row>
-    <row r="274" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X273" s="95"/>
+    </row>
+    <row r="274" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H274" s="4"/>
-    </row>
-    <row r="275" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X274" s="95"/>
+    </row>
+    <row r="275" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H275" s="4"/>
-    </row>
-    <row r="276" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X275" s="95"/>
+    </row>
+    <row r="276" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H276" s="4"/>
-    </row>
-    <row r="277" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X276" s="95"/>
+    </row>
+    <row r="277" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H277" s="4"/>
-    </row>
-    <row r="278" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X277" s="95"/>
+    </row>
+    <row r="278" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H278" s="4"/>
-    </row>
-    <row r="279" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X278" s="95"/>
+    </row>
+    <row r="279" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H279" s="4"/>
-    </row>
-    <row r="280" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X279" s="95"/>
+    </row>
+    <row r="280" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H280" s="4"/>
-    </row>
-    <row r="281" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X280" s="95"/>
+    </row>
+    <row r="281" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H281" s="4"/>
-    </row>
-    <row r="282" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X281" s="95"/>
+    </row>
+    <row r="282" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H282" s="4"/>
-    </row>
-    <row r="283" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X282" s="95"/>
+    </row>
+    <row r="283" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H283" s="4"/>
-    </row>
-    <row r="284" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X283" s="95"/>
+    </row>
+    <row r="284" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H284" s="4"/>
-    </row>
-    <row r="285" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X284" s="95"/>
+    </row>
+    <row r="285" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H285" s="4"/>
-    </row>
-    <row r="286" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X285" s="95"/>
+    </row>
+    <row r="286" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H286" s="4"/>
-    </row>
-    <row r="287" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X286" s="95"/>
+    </row>
+    <row r="287" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H287" s="4"/>
-    </row>
-    <row r="288" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X287" s="95"/>
+    </row>
+    <row r="288" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H288" s="4"/>
-    </row>
-    <row r="289" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X288" s="95"/>
+    </row>
+    <row r="289" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H289" s="4"/>
-    </row>
-    <row r="290" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X289" s="95"/>
+    </row>
+    <row r="290" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H290" s="4"/>
-    </row>
-    <row r="291" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X290" s="95"/>
+    </row>
+    <row r="291" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H291" s="4"/>
-    </row>
-    <row r="292" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X291" s="95"/>
+    </row>
+    <row r="292" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H292" s="4"/>
-    </row>
-    <row r="293" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X292" s="95"/>
+    </row>
+    <row r="293" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H293" s="4"/>
-    </row>
-    <row r="294" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X293" s="95"/>
+    </row>
+    <row r="294" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H294" s="4"/>
-    </row>
-    <row r="295" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X294" s="95"/>
+    </row>
+    <row r="295" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H295" s="4"/>
-    </row>
-    <row r="296" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X295" s="95"/>
+    </row>
+    <row r="296" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H296" s="4"/>
-    </row>
-    <row r="297" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X296" s="95"/>
+    </row>
+    <row r="297" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H297" s="4"/>
-    </row>
-    <row r="298" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X297" s="95"/>
+    </row>
+    <row r="298" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H298" s="4"/>
-    </row>
-    <row r="299" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X298" s="95"/>
+    </row>
+    <row r="299" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H299" s="4"/>
-    </row>
-    <row r="300" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X299" s="95"/>
+    </row>
+    <row r="300" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H300" s="4"/>
-    </row>
-    <row r="301" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X300" s="95"/>
+    </row>
+    <row r="301" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H301" s="4"/>
-    </row>
-    <row r="302" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X301" s="95"/>
+    </row>
+    <row r="302" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H302" s="4"/>
-    </row>
-    <row r="303" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X302" s="95"/>
+    </row>
+    <row r="303" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H303" s="4"/>
-    </row>
-    <row r="304" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X303" s="95"/>
+    </row>
+    <row r="304" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H304" s="4"/>
-    </row>
-    <row r="305" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X304" s="95"/>
+    </row>
+    <row r="305" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H305" s="4"/>
-    </row>
-    <row r="306" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X305" s="95"/>
+    </row>
+    <row r="306" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H306" s="4"/>
-    </row>
-    <row r="307" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X306" s="95"/>
+    </row>
+    <row r="307" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H307" s="4"/>
-    </row>
-    <row r="308" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X307" s="95"/>
+    </row>
+    <row r="308" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H308" s="4"/>
-    </row>
-    <row r="309" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X308" s="95"/>
+    </row>
+    <row r="309" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H309" s="4"/>
-    </row>
-    <row r="310" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X309" s="95"/>
+    </row>
+    <row r="310" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H310" s="4"/>
-    </row>
-    <row r="311" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X310" s="95"/>
+    </row>
+    <row r="311" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H311" s="4"/>
-    </row>
-    <row r="312" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X311" s="95"/>
+    </row>
+    <row r="312" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H312" s="4"/>
-    </row>
-    <row r="313" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X312" s="95"/>
+    </row>
+    <row r="313" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H313" s="4"/>
-    </row>
-    <row r="314" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X313" s="95"/>
+    </row>
+    <row r="314" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H314" s="4"/>
-    </row>
-    <row r="315" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X314" s="95"/>
+    </row>
+    <row r="315" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H315" s="4"/>
-    </row>
-    <row r="316" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X315" s="95"/>
+    </row>
+    <row r="316" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H316" s="4"/>
-    </row>
-    <row r="317" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X316" s="95"/>
+    </row>
+    <row r="317" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H317" s="4"/>
-    </row>
-    <row r="318" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X317" s="95"/>
+    </row>
+    <row r="318" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H318" s="4"/>
-    </row>
-    <row r="319" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X318" s="95"/>
+    </row>
+    <row r="319" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H319" s="4"/>
-    </row>
-    <row r="320" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X319" s="95"/>
+    </row>
+    <row r="320" spans="8:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H320" s="4"/>
-    </row>
-    <row r="321" spans="3:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X320" s="95"/>
+    </row>
+    <row r="321" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H321" s="4"/>
-    </row>
-    <row r="322" spans="3:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X321" s="95"/>
+    </row>
+    <row r="322" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H322" s="4"/>
-    </row>
-    <row r="323" spans="3:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X322" s="95"/>
+    </row>
+    <row r="323" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H323" s="4"/>
-    </row>
-    <row r="324" spans="3:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X323" s="95"/>
+    </row>
+    <row r="324" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H324" s="4"/>
-    </row>
-    <row r="325" spans="3:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X324" s="95"/>
+    </row>
+    <row r="325" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H325" s="4"/>
-    </row>
-    <row r="326" spans="3:32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
-      <c r="R326" s="1"/>
-      <c r="S326" s="1"/>
-      <c r="T326" s="1"/>
-      <c r="U326" s="1"/>
-      <c r="V326" s="1"/>
-      <c r="W326" s="1"/>
-      <c r="X326" s="1"/>
-      <c r="Y326" s="1"/>
-      <c r="Z326" s="1"/>
-      <c r="AA326" s="1"/>
-      <c r="AB326" s="1"/>
-      <c r="AC326" s="1"/>
-      <c r="AD326" s="1"/>
-      <c r="AE326" s="1"/>
-      <c r="AF326" s="1"/>
+      <c r="X325" s="95"/>
+    </row>
+    <row r="326" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H326" s="4"/>
+      <c r="X326" s="95"/>
+    </row>
+    <row r="327" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H327" s="4"/>
+      <c r="X327" s="95"/>
+    </row>
+    <row r="328" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H328" s="4"/>
+      <c r="X328" s="95"/>
+    </row>
+    <row r="329" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H329" s="4"/>
+      <c r="X329" s="95"/>
+    </row>
+    <row r="330" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H330" s="4"/>
+      <c r="X330" s="95"/>
+    </row>
+    <row r="331" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H331" s="4"/>
+      <c r="X331" s="95"/>
+    </row>
+    <row r="332" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H332" s="4"/>
+      <c r="X332" s="95"/>
+    </row>
+    <row r="333" spans="3:35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+      <c r="P333" s="1"/>
+      <c r="Q333" s="1"/>
+      <c r="R333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="T333" s="1"/>
+      <c r="U333" s="1"/>
+      <c r="V333" s="1"/>
+      <c r="W333" s="1"/>
+      <c r="X333" s="96"/>
+      <c r="Y333" s="1"/>
+      <c r="Z333" s="1"/>
+      <c r="AA333" s="1"/>
+      <c r="AB333" s="1"/>
+      <c r="AC333" s="1"/>
+      <c r="AD333" s="1"/>
+      <c r="AE333" s="1"/>
+      <c r="AF333" s="1"/>
+      <c r="AG333" s="1"/>
+      <c r="AH333" s="1"/>
+      <c r="AI333" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6817,21 +7982,6 @@
     <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>A$20=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>A$20=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:H38">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>$Q27=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D21:L21 E22:L22 D22:D26 E23:G24 I23:L24">
     <cfRule type="expression" dxfId="7" priority="20">
       <formula>$Q21=FALSE</formula>
@@ -6852,31 +8002,31 @@
       <formula>#REF!=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:P25 I26:L38">
+  <conditionalFormatting sqref="I25:P25">
     <cfRule type="expression" dxfId="3" priority="24">
       <formula>$Q25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:P38">
-    <cfRule type="expression" dxfId="2" priority="30">
-      <formula>$Q28=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:Q24 A21:C26 R21:AF29 E25:H26 Q25:Q26 M26:P26 M27:Q27 Q28:Q29 Q30:AF38">
-    <cfRule type="expression" dxfId="1" priority="18">
+  <conditionalFormatting sqref="M21:Q24 A21:C26 R21:AH29 E25:H26 Q25:Q26 M26:P26 M27:Q27 Q28:Q29">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$Q21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:AF38">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>R$20=FALSE</formula>
+  <conditionalFormatting sqref="R1:AI45 A27">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>A$20=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI21:AI44 I26:L36 A27:H33 M28:P36 Q30:AC37 AD30:AH44 B34:H36 A34:A37 B37:P37 A38:AC38 A39:H39 I39:AC41 B40:H42 A40:A44 I42:P42 Q42:AC44 B43:P44 A45:AI45">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$Q21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R20:AF20 Q21:Q38" xr:uid="{59905F35-D42F-459C-BEEA-866394E0EECF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R20:AI20 Q21:Q45" xr:uid="{59905F35-D42F-459C-BEEA-866394E0EECF}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:AF5 B21:B38" xr:uid="{EA11A4BF-DB1C-4AC4-9C11-27F62AE71AED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:AI5 B21:B45" xr:uid="{EA11A4BF-DB1C-4AC4-9C11-27F62AE71AED}">
       <formula1>"required,optional,prohibited"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6892,13 +8042,13 @@
           <x14:formula1>
             <xm:f>ENUMS!$B$3:$B$394</xm:f>
           </x14:formula1>
-          <xm:sqref>R11:U11 X11 AB11:AF11</xm:sqref>
+          <xm:sqref>R11:U11 X11 AB11:AI11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{210F2AE6-A876-4F55-AD1E-8DD6C8F137E6}">
           <x14:formula1>
             <xm:f>ENUMS!$B$3:$B$393</xm:f>
           </x14:formula1>
-          <xm:sqref>H38 H27:H29</xm:sqref>
+          <xm:sqref>H27:H29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
